--- a/Templates/DonXinVaoHoiCCB.xlsx
+++ b/Templates/DonXinVaoHoiCCB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\letha\OneDrive\Documents\VRM\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORKS\VRM\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
   <si>
     <t>CỘNG HÒA XÃ HỘI CHỦ NGHĨA VIỆT NAM</t>
   </si>
@@ -44,42 +44,21 @@
     <t>Nam, nữ:</t>
   </si>
   <si>
-    <t>$FULLNAME</t>
-  </si>
-  <si>
-    <t>$GENDER</t>
-  </si>
-  <si>
-    <t>$DOB</t>
-  </si>
-  <si>
     <t>Dân tộc:</t>
   </si>
   <si>
-    <t>$ETHNIC</t>
-  </si>
-  <si>
     <t>Tôn giáo:</t>
   </si>
   <si>
-    <t>$RELIGION</t>
-  </si>
-  <si>
     <t>Quê quán</t>
   </si>
   <si>
-    <t>$RESIDENCE</t>
-  </si>
-  <si>
     <t>Nơi đăng ký hộ khẩu thường trú:</t>
   </si>
   <si>
     <t>Chỗ ở hiện nay:</t>
   </si>
   <si>
-    <t>$ADDRESS</t>
-  </si>
-  <si>
     <t>Ngày nhập ngũ:</t>
   </si>
   <si>
@@ -92,16 +71,7 @@
     <t>Số điện thoại:</t>
   </si>
   <si>
-    <t>$ACADEMIC</t>
-  </si>
-  <si>
-    <t>$MOBILE_NO</t>
-  </si>
-  <si>
     <t>Trình độ khoa học, chuyên môn, nghiệp vụ:</t>
-  </si>
-  <si>
-    <t>$POLITICAL_THEORY</t>
   </si>
   <si>
     <t>Trình độ lý luận chính trị (trường đào tạo):</t>
@@ -195,6 +165,114 @@
   </si>
   <si>
     <t>Người khai</t>
+  </si>
+  <si>
+    <t>$HoTen</t>
+  </si>
+  <si>
+    <t>$GioiTinh</t>
+  </si>
+  <si>
+    <t>$NgaySinh</t>
+  </si>
+  <si>
+    <t>$DanToc</t>
+  </si>
+  <si>
+    <t>$TonGiao</t>
+  </si>
+  <si>
+    <t>$HoKhauThuongTru</t>
+  </si>
+  <si>
+    <t>$DiaChi</t>
+  </si>
+  <si>
+    <t>$NgayNhapNgu</t>
+  </si>
+  <si>
+    <t>$NgayXuatNgu</t>
+  </si>
+  <si>
+    <t>$TrinhDoVanHoa</t>
+  </si>
+  <si>
+    <t>$SoDienThoai</t>
+  </si>
+  <si>
+    <t>$TrinhDoChuyenMon</t>
+  </si>
+  <si>
+    <t>$LyLuanChinhTri</t>
+  </si>
+  <si>
+    <t>$NgayVaoDang</t>
+  </si>
+  <si>
+    <t>$CapBac</t>
+  </si>
+  <si>
+    <t>$DonVi</t>
+  </si>
+  <si>
+    <t>$NgayNghiHuu</t>
+  </si>
+  <si>
+    <t>$CapBacKhiNghiHuu</t>
+  </si>
+  <si>
+    <t>$CoQuanKhiNghiHuu</t>
+  </si>
+  <si>
+    <t>$ThuongBinh</t>
+  </si>
+  <si>
+    <t>$GiaDinhLietSi</t>
+  </si>
+  <si>
+    <t>$ChatDocMauDaCam</t>
+  </si>
+  <si>
+    <t>$KhenThuong</t>
+  </si>
+  <si>
+    <t>$KyLuat</t>
+  </si>
+  <si>
+    <t>$TinhTrangSucKhoe</t>
+  </si>
+  <si>
+    <t>$TinhHinhDoiSongGiaDinh</t>
+  </si>
+  <si>
+    <t>$HoTenVoChong</t>
+  </si>
+  <si>
+    <t>$NamSinhVoChong</t>
+  </si>
+  <si>
+    <t>$QueQuanVoChong</t>
+  </si>
+  <si>
+    <t>$ChoOHienNayVoChong</t>
+  </si>
+  <si>
+    <t>$TrinhDoVanHoaVoChong</t>
+  </si>
+  <si>
+    <t>$NgheNghiepVoChong</t>
+  </si>
+  <si>
+    <t>$CacCon</t>
+  </si>
+  <si>
+    <t>$NguoiKhai</t>
+  </si>
+  <si>
+    <t>$QueQuan</t>
+  </si>
+  <si>
+    <t>$QuaTrinhCongTac</t>
   </si>
 </sst>
 </file>
@@ -332,16 +410,58 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -349,47 +469,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -671,340 +752,355 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43:I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="11.140625" style="1" customWidth="1"/>
+    <col min="2" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="5.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="18.140625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="F11" s="11"/>
+      <c r="G11" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7" t="s">
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7" t="s">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7" t="s">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="F16" s="9"/>
+      <c r="G16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7" t="s">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="8" t="s">
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
+      <c r="A24" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -1015,11 +1111,13 @@
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
+      <c r="A25" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
@@ -1028,12 +1126,14 @@
       <c r="I25" s="9"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
+      <c r="A26" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -1041,52 +1141,62 @@
       <c r="I26" s="9"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
+      <c r="A27" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
+      <c r="A28" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="D28" s="9"/>
-      <c r="E28" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
+      <c r="E28" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I28" s="7"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
+      <c r="A29" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
+      <c r="A30" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
@@ -1095,10 +1205,12 @@
       <c r="I30" s="9"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="9"/>
+      <c r="A31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -1108,20 +1220,22 @@
       <c r="I31" s="9"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
+      <c r="A32" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
+      <c r="A33" s="9" t="s">
+        <v>67</v>
+      </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -1132,74 +1246,78 @@
       <c r="I33" s="9"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="A34" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
+      <c r="A35" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="A37" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
     </row>
     <row r="38" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
+      <c r="A38" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="12"/>
+      <c r="A39" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
@@ -1209,51 +1327,57 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
+      <c r="A41" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G42" s="11"/>
+      <c r="H42" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="I42" s="9"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="9"/>
+      <c r="A43" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
@@ -1262,11 +1386,13 @@
       <c r="I43" s="9"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="9"/>
+      <c r="A44" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
@@ -1275,102 +1401,105 @@
       <c r="I44" s="9"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
+      <c r="A45" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
+      <c r="A46" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
+      <c r="A47" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
     </row>
     <row r="48" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
+      <c r="A48" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
     </row>
     <row r="50" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F50" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
+      <c r="F50" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+    </row>
+    <row r="54" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F54" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="78">
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="A47:I47"/>
-    <mergeCell ref="A48:I48"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:I44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:I43"/>
-    <mergeCell ref="C39:I39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="C38:I38"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:I30"/>
+  <mergeCells count="80">
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A19:D19"/>
     <mergeCell ref="B31:I31"/>
     <mergeCell ref="A33:I33"/>
     <mergeCell ref="A27:C27"/>
@@ -1379,6 +1508,11 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="E28:G28"/>
     <mergeCell ref="H28:I28"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:I30"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A24:I24"/>
     <mergeCell ref="A25:B25"/>
@@ -1390,29 +1524,36 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:I21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="C38:I38"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:I43"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:I44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="G45:I45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Templates/DonXinVaoHoiCCB.xlsx
+++ b/Templates/DonXinVaoHoiCCB.xlsx
@@ -263,16 +263,16 @@
     <t>$NgheNghiepVoChong</t>
   </si>
   <si>
-    <t>$CacCon</t>
+    <t>$QueQuan</t>
+  </si>
+  <si>
+    <t>$QuaTrinhCongTac</t>
   </si>
   <si>
     <t>$NguoiKhai</t>
   </si>
   <si>
-    <t>$QueQuan</t>
-  </si>
-  <si>
-    <t>$QuaTrinhCongTac</t>
+    <t>$TTCacCon</t>
   </si>
 </sst>
 </file>
@@ -410,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -418,59 +418,56 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -754,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43:I43"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -769,30 +766,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -833,14 +830,14 @@
       <c r="A6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -865,612 +862,668 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11" t="s">
+      <c r="G9" s="10"/>
+      <c r="H9" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="I9" s="11"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11" t="s">
+      <c r="F11" s="10"/>
+      <c r="G11" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+    </row>
+    <row r="38" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+    </row>
+    <row r="39" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="16"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G42" s="10"/>
+      <c r="H42" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I42" s="8"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+    </row>
+    <row r="48" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-    </row>
-    <row r="38" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="14"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G42" s="11"/>
-      <c r="H42" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I42" s="9"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-    </row>
-    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-    </row>
-    <row r="48" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-    </row>
-    <row r="50" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F50" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-    </row>
-    <row r="54" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F54" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="80">
@@ -1500,35 +1553,34 @@
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="A18:I18"/>
     <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="C38:I38"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="A26:C26"/>
     <mergeCell ref="B31:I31"/>
     <mergeCell ref="A33:I33"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="D27:I27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="C38:I38"/>
-    <mergeCell ref="A32:B32"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="F42:G42"/>
@@ -1544,9 +1596,9 @@
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="C12:I12"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A34:F34"/>
     <mergeCell ref="F50:H50"/>
     <mergeCell ref="A46:I46"/>
-    <mergeCell ref="A47:I47"/>
     <mergeCell ref="A48:I48"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="C44:I44"/>
@@ -1554,6 +1606,7 @@
     <mergeCell ref="E45:F45"/>
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="G45:I45"/>
+    <mergeCell ref="A47:I47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
